--- a/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,89</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; -5,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,6; -6,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,68; -4,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; -3,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,6; -6,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,3; -6,66</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,1%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -65,25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -18,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,78; -52,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -78,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,01; -83,91</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,79</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,9</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,74; -5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; -5,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; -5,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; -5,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,61; -6,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,67; -6,8</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,98%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -74,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -80,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,19; -66,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,11; -72,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,8; -78,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,09; -84,57</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,35</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,02; -4,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,96; -4,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; -8,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,8; -7,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,89; -7,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,22; -7,06</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,73%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -70,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,27; -74,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -79,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,71; -71,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -85,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,02; -79,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,85</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,62</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; -0,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; -4,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,75; -8,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,99; -8,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,85; -5,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,77; -7,04</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,31%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,5%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,98; 13,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -70,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -80,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -86,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,59; -62,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,78; -86,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-7,5</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-8,07</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-10,71</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-10,42</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-9,09</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-9,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,48; -5,12</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-11,13; -6,22</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-12,76; -8,68</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; -8,55</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-10,73; -7,54</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; -7,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-88,12%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-94,87%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-93,73%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-91,17%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-91,35%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-92,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-96,39; -62,9</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-98,09; -89,27</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-97,67; -87,37</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-95,1; -84,92</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-95,42; -80,88</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-95,6; -88,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-13,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-14,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-10,18</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,6</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,92</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-11,89</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-13.39539166723471</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-14.35736733678225</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-9.975976386917155</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-9.17716485693116</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-11.66284963781552</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-11.58441124434119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-25,22; -5,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-25,6; -6,9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; -4,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,54; -3,37</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-18,6; -6,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-19,3; -6,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.28651281052784</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-25.71359038697329</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.66053116475616</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.13698126947373</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-18.54025895783983</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-18.32579531383228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-95,64%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-94,86%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-89,5%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-95,33%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-95,1%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-5.807706598719002</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-7.136793819768616</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-3.922170074854529</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-2.911695378882499</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-5.932509824560092</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-6.212421526437716</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -65,25</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -18,52</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-97,78; -52,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -78,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-99,01; -83,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.9329977671405645</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.9296296797982841</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.8551909604149935</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9324806977197004</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9262093069235948</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-10,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,31</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,33</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,49</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,79</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,9</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.9770126764425107</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9838017448020164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,74; -5,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-23,19; -5,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,71; -5,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-13,98; -5,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,61; -6,62</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-16,67; -6,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.4164054952349924</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>-0.3184236120274636</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.3530659490311568</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.7211821194620842</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.7469140134348119</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-96,14%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-96,47%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-88,02%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-89,51%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-91,96%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-92,98%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-10.21522515671241</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.20526896383208</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.110378368597265</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-9.210354337757265</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-9.64234279207753</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-9.696729550249158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -74,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -80,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-97,19; -66,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-96,11; -72,49</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-97,8; -78,9</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-97,09; -84,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-22.66215794374212</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-23.18813618609295</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.2284334656193</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-14.51276775098164</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-16.44520526391772</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-16.98648658425307</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-9,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,85</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-12,46</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,52</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-11,0</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-10,35</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-5.014661878860978</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-5.269313910223181</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-5.379485113929515</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-5.300190502585686</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-6.524213704370115</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-6.499713391587575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-15,02; -4,88</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,96; -4,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-17,76; -8,07</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; -7,15</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-14,89; -7,84</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-14,22; -7,06</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.9560234220018946</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.9550916409161579</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.8590718554660517</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.86849918524901</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.9057637997900303</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.9108726781821438</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-95,91%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-92,45%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-96,72%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-89,46%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-96,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-90,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.966905806011821</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.9559154884093285</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.9770276446532614</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.9671389179560625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -70,38</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-98,27; -74,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -79,97</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-96,71; -71,86</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -85,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-96,02; -79,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.6262028496939178</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.8049781922605359</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.5548086138604593</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.6555244174021361</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.7503334331856512</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.802824371277951</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +924,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,13</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-6,43</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-10,79</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-11,02</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-7,85</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-8,62</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-9.101839810236928</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.656306368191595</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-12.39767559626173</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-11.21773165785659</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-10.92778682407827</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-10.09117777535645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; -0,24</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,21; -4,18</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; -8,01</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-13,99; -8,17</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; -5,54</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-10,77; -7,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.94107375145265</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-14.68851595961417</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-17.74188869338832</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-17.29624979550298</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-14.51767296968328</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-14.33348795877941</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-74,02%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-92,75%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-95,31%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-97,38%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-86,91%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-95,5%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-4.75013846718216</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-4.577531952572821</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-8.183903824903691</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-7.203731023663305</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-7.813232848887355</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-6.906067430619581</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-94,98; 13,83</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -70,48</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -80,34</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -86,84</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-95,59; -62,01</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-98,78; -86,98</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.9510112538393876</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.9044594218822526</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.9624046732674741</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.8708081839338486</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.9581732761796464</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.8848174863934615</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-7,5</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-8,07</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-10,71</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-10,42</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-9,09</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-9,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.9806057158208731</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.9679447179901766</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.9526255849445538</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; -5,12</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-11,13; -6,22</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,76; -8,68</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-12,57; -8,55</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-10,73; -7,54</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; -7,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>-0.6602932589134198</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>-0.6514684435513355</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.7881491780787743</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.6917699768783132</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>-0.831794612342638</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>-0.758901209222052</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-88,12%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-94,87%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-93,73%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-91,17%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-91,35%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-92,69%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-10.21712511867766</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-10.20764223181887</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-10.55184138238113</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-10.03478480446825</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-10.38510452091088</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-10.10247453820112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-96,39; -62,9</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-98,09; -89,27</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-97,67; -87,37</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-95,1; -84,92</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-95,42; -80,88</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-95,6; -88,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-15.83337350246988</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-17.14424892134718</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-13.65606451871197</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-13.25028459595376</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-13.21860560165774</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-13.30342167524699</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-6.701402067861268</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-6.93494252873243</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-7.766272551112814</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-7.340188163461995</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-8.030049001842654</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-7.882523709395604</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.9496994801337458</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.9488180293718783</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9131997119853541</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.8684515110866379</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9296063006163078</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.904307122149587</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.9963994921060639</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.9860995670492622</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.9712933457282736</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-0.9299414889826703</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9713110583715771</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-0.946422137882256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.8339873916213928</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.8672906555855111</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.8002751115885688</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.7614088103012137</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.8614881422827551</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.8411664238864421</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
